--- a/experimentos/data/exp4/exp4_managers_means.xlsx
+++ b/experimentos/data/exp4/exp4_managers_means.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>numero usuarios</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Utilidade 9</t>
+  </si>
+  <si>
+    <t>0 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>3 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>6 aspiradores e 3 coordenadores</t>
+  </si>
+  <si>
+    <t>9 aspiradores e 3 coordenadores</t>
   </si>
 </sst>
 </file>
@@ -634,11 +646,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Experimento</a:t>
+              <a:t>Variação</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> 4</a:t>
+              <a:t> de Utilidade</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -686,11 +698,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$C$1</c:f>
+              <c:f>exp4_managers_means!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 0</c:v>
+                  <c:v>0 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -835,11 +847,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$E$1</c:f>
+              <c:f>exp4_managers_means!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 3</c:v>
+                  <c:v>3 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,11 +996,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$G$1</c:f>
+              <c:f>exp4_managers_means!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 6</c:v>
+                  <c:v>6 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,11 +1145,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$I$1</c:f>
+              <c:f>exp4_managers_means!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade 9</c:v>
+                  <c:v>9 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1287,11 +1299,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="354245456"/>
-        <c:axId val="354241928"/>
+        <c:axId val="443891312"/>
+        <c:axId val="443890528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354245456"/>
+        <c:axId val="443891312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1402,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354241928"/>
+        <c:crossAx val="443890528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1398,7 +1410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354241928"/>
+        <c:axId val="443890528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1517,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354245456"/>
+        <c:crossAx val="443891312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,8 +1633,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Experimento 4</a:t>
+              <a:t>Variação</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Sujeira</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1668,11 +1685,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$D$1</c:f>
+              <c:f>exp4_managers_means!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 0</c:v>
+                  <c:v>0 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1817,11 +1834,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$F$1</c:f>
+              <c:f>exp4_managers_means!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 3</c:v>
+                  <c:v>3 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1966,11 +1983,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$H$1</c:f>
+              <c:f>exp4_managers_means!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 6</c:v>
+                  <c:v>6 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2115,11 +2132,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>exp4_managers_means!$J$1</c:f>
+              <c:f>exp4_managers_means!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira 9</c:v>
+                  <c:v>9 aspiradores e 3 coordenadores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2269,11 +2286,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="354232544"/>
-        <c:axId val="354229016"/>
+        <c:axId val="443888960"/>
+        <c:axId val="443890920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354232544"/>
+        <c:axId val="443888960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2389,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354229016"/>
+        <c:crossAx val="443890920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354229016"/>
+        <c:axId val="443890920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2509,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354232544"/>
+        <c:crossAx val="443888960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3921,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,6 +3951,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4060,6 +4078,9 @@
       <c r="J4">
         <v>37.222999999999999</v>
       </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4092,6 +4113,9 @@
       <c r="J5">
         <v>40.734000000000002</v>
       </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4124,6 +4148,9 @@
       <c r="J6">
         <v>45.936999999999998</v>
       </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4155,6 +4182,9 @@
       </c>
       <c r="J7">
         <v>48.08</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
